--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Fall.120619.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Fall.120619.xlsx_with_dialog_acts.xlsx
@@ -665,12 +665,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1543,12 +1543,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1809,12 +1809,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2645,12 +2645,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2835,12 +2835,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3291,12 +3291,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3861,12 +3861,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3975,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4393,12 +4393,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4849,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5001,12 +5001,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5039,12 +5039,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5305,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7053,12 +7053,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7129,12 +7129,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7205,12 +7205,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7281,12 +7281,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7471,12 +7471,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7775,12 +7775,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7927,12 +7927,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8115,12 +8115,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8153,12 +8153,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8533,12 +8533,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8609,12 +8609,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8723,12 +8723,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8837,12 +8837,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8913,12 +8913,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9255,12 +9255,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9331,12 +9331,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9369,12 +9369,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9559,12 +9559,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9711,12 +9711,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9825,12 +9825,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9901,12 +9901,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9977,12 +9977,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10091,12 +10091,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10129,12 +10129,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10205,12 +10205,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10433,12 +10433,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10585,12 +10585,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10699,12 +10699,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10737,12 +10737,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11231,12 +11231,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11269,12 +11269,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12109,12 +12109,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12147,12 +12147,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12911,12 +12911,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13063,12 +13063,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13101,12 +13101,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13291,12 +13291,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13329,12 +13329,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13785,12 +13785,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13975,12 +13975,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14203,12 +14203,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14431,12 +14431,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14963,12 +14963,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15039,12 +15039,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15685,12 +15685,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15799,12 +15799,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15901,12 +15901,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16205,12 +16205,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16319,12 +16319,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16395,12 +16395,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16585,12 +16585,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>fc</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Conventional-closing</t>
         </is>
       </c>
     </row>
@@ -16699,12 +16699,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16775,12 +16775,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16813,12 +16813,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
